--- a/Aulas/Introducao a Analise de Algoritmos/EP 2/Resultados/Resultado.xlsx
+++ b/Aulas/Introducao a Analise de Algoritmos/EP 2/Resultados/Resultado.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28221"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c2db480c8373a3a0/Área de Trabalho/Programas/Programas-e-Projetos/Aulas/Introducao a Analise de Algoritmos/EP 2/Resultados/"/>
@@ -10,15 +10,29 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="5" documentId="11_8345EE074E4AB3B87A550C384634B2841FD1CE3A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CB7ADF79-B9C0-4303-A194-30B30E62093B}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Crescente" sheetId="1" r:id="rId1"/>
     <sheet name="Aleatorio" sheetId="2" r:id="rId2"/>
     <sheet name="Decrescente" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
     </ext>
@@ -47,22 +61,124 @@
     <t>Movimentacoes</t>
   </si>
   <si>
+    <t>BubbleSort</t>
+  </si>
+  <si>
+    <t>0.000002</t>
+  </si>
+  <si>
+    <t>0.000004</t>
+  </si>
+  <si>
+    <t>0.000022</t>
+  </si>
+  <si>
+    <t>0.000029</t>
+  </si>
+  <si>
+    <t>0.000362</t>
+  </si>
+  <si>
+    <t>HeapSort</t>
+  </si>
+  <si>
+    <t>0.000013</t>
+  </si>
+  <si>
+    <t>0.000163</t>
+  </si>
+  <si>
+    <t>0.001912</t>
+  </si>
+  <si>
+    <t>0.000279</t>
+  </si>
+  <si>
+    <t>0.003589</t>
+  </si>
+  <si>
+    <t>0.076931</t>
+  </si>
+  <si>
     <t>InsertionSort</t>
   </si>
   <si>
     <t>0.000003</t>
   </si>
   <si>
+    <t>0.000007</t>
+  </si>
+  <si>
+    <t>0.000038</t>
+  </si>
+  <si>
+    <t>0.000054</t>
+  </si>
+  <si>
+    <t>0.001097</t>
+  </si>
+  <si>
+    <t>0.013546</t>
+  </si>
+  <si>
+    <t>MergeSort</t>
+  </si>
+  <si>
+    <t>0.000019</t>
+  </si>
+  <si>
+    <t>0.000117</t>
+  </si>
+  <si>
+    <t>0.001349</t>
+  </si>
+  <si>
+    <t>0.001007</t>
+  </si>
+  <si>
+    <t>0.013441</t>
+  </si>
+  <si>
+    <t>0.171872</t>
+  </si>
+  <si>
+    <t>QuickSort</t>
+  </si>
+  <si>
+    <t>0.000074</t>
+  </si>
+  <si>
+    <t>0.000854</t>
+  </si>
+  <si>
+    <t>0.000178</t>
+  </si>
+  <si>
+    <t>0.004300</t>
+  </si>
+  <si>
+    <t>0.066427</t>
+  </si>
+  <si>
     <t>SelectionSort</t>
   </si>
   <si>
     <t>0.000014</t>
   </si>
   <si>
-    <t>BubbleSort</t>
-  </si>
-  <si>
-    <t>0.000002</t>
+    <t>0.001191</t>
+  </si>
+  <si>
+    <t>0.099935</t>
+  </si>
+  <si>
+    <t>0.000016</t>
+  </si>
+  <si>
+    <t>0.001124</t>
+  </si>
+  <si>
+    <t>0.180619</t>
   </si>
   <si>
     <t>ShellSort</t>
@@ -71,347 +187,245 @@
     <t>0.000005</t>
   </si>
   <si>
-    <t>MergeSort</t>
-  </si>
-  <si>
-    <t>0.000019</t>
-  </si>
-  <si>
-    <t>HeapSort</t>
-  </si>
-  <si>
-    <t>0.000013</t>
-  </si>
-  <si>
-    <t>QuickSort</t>
-  </si>
-  <si>
-    <t>0.000007</t>
-  </si>
-  <si>
-    <t>0.001191</t>
-  </si>
-  <si>
-    <t>0.000004</t>
-  </si>
-  <si>
     <t>0.000032</t>
   </si>
   <si>
-    <t>0.000117</t>
-  </si>
-  <si>
-    <t>0.000163</t>
-  </si>
-  <si>
-    <t>0.000074</t>
-  </si>
-  <si>
-    <t>0.000038</t>
-  </si>
-  <si>
-    <t>0.099935</t>
-  </si>
-  <si>
-    <t>0.000022</t>
-  </si>
-  <si>
     <t>0.000378</t>
   </si>
   <si>
-    <t>0.001349</t>
-  </si>
-  <si>
-    <t>0.001912</t>
-  </si>
-  <si>
-    <t>0.000854</t>
-  </si>
-  <si>
-    <t>0.000054</t>
-  </si>
-  <si>
-    <t>0.000016</t>
-  </si>
-  <si>
     <t>0.000125</t>
   </si>
   <si>
-    <t>0.001007</t>
-  </si>
-  <si>
-    <t>0.000279</t>
-  </si>
-  <si>
-    <t>0.000178</t>
-  </si>
-  <si>
-    <t>0.001097</t>
-  </si>
-  <si>
-    <t>0.001124</t>
-  </si>
-  <si>
-    <t>0.000029</t>
-  </si>
-  <si>
     <t>0.001856</t>
   </si>
   <si>
-    <t>0.013441</t>
-  </si>
-  <si>
-    <t>0.003589</t>
-  </si>
-  <si>
-    <t>0.004300</t>
-  </si>
-  <si>
-    <t>0.013546</t>
-  </si>
-  <si>
-    <t>0.180619</t>
-  </si>
-  <si>
-    <t>0.000362</t>
-  </si>
-  <si>
     <t>0.087129</t>
   </si>
   <si>
-    <t>0.171872</t>
-  </si>
-  <si>
-    <t>0.076931</t>
-  </si>
-  <si>
-    <t>0.066427</t>
+    <t>0.001833</t>
+  </si>
+  <si>
+    <t>0.178199</t>
+  </si>
+  <si>
+    <t>0.000865</t>
+  </si>
+  <si>
+    <t>0.081890</t>
+  </si>
+  <si>
+    <t>13.025811</t>
+  </si>
+  <si>
+    <t>0.000011</t>
+  </si>
+  <si>
+    <t>0.000151</t>
+  </si>
+  <si>
+    <t>0.002040</t>
+  </si>
+  <si>
+    <t>0.000286</t>
+  </si>
+  <si>
+    <t>0.004786</t>
+  </si>
+  <si>
+    <t>0.051806</t>
   </si>
   <si>
     <t>0.000010</t>
   </si>
   <si>
+    <t>0.000720</t>
+  </si>
+  <si>
+    <t>0.076228</t>
+  </si>
+  <si>
+    <t>0.000434</t>
+  </si>
+  <si>
+    <t>0.040242</t>
+  </si>
+  <si>
+    <t>8.556292</t>
+  </si>
+  <si>
+    <t>0.001958</t>
+  </si>
+  <si>
+    <t>0.000924</t>
+  </si>
+  <si>
+    <t>0.010885</t>
+  </si>
+  <si>
+    <t>0.113882</t>
+  </si>
+  <si>
+    <t>0.000009</t>
+  </si>
+  <si>
+    <t>0.000106</t>
+  </si>
+  <si>
+    <t>0.001243</t>
+  </si>
+  <si>
+    <t>0.000256</t>
+  </si>
+  <si>
+    <t>0.003495</t>
+  </si>
+  <si>
+    <t>0.048913</t>
+  </si>
+  <si>
+    <t>0.001051</t>
+  </si>
+  <si>
+    <t>0.100908</t>
+  </si>
+  <si>
+    <t>0.000113</t>
+  </si>
+  <si>
+    <t>0.003300</t>
+  </si>
+  <si>
+    <t>0.181168</t>
+  </si>
+  <si>
     <t>0.000008</t>
   </si>
   <si>
-    <t>0.000011</t>
-  </si>
-  <si>
-    <t>0.000009</t>
-  </si>
-  <si>
-    <t>0.000720</t>
-  </si>
-  <si>
-    <t>0.001051</t>
-  </si>
-  <si>
-    <t>0.001833</t>
-  </si>
-  <si>
-    <t>0.000151</t>
-  </si>
-  <si>
-    <t>0.000106</t>
-  </si>
-  <si>
-    <t>0.076228</t>
-  </si>
-  <si>
-    <t>0.100908</t>
-  </si>
-  <si>
-    <t>0.178199</t>
-  </si>
-  <si>
     <t>0.001904</t>
   </si>
   <si>
-    <t>0.001958</t>
-  </si>
-  <si>
-    <t>0.002040</t>
-  </si>
-  <si>
-    <t>0.001243</t>
-  </si>
-  <si>
-    <t>0.000434</t>
-  </si>
-  <si>
-    <t>0.000113</t>
-  </si>
-  <si>
-    <t>0.000865</t>
-  </si>
-  <si>
     <t>0.000272</t>
   </si>
   <si>
-    <t>0.000924</t>
-  </si>
-  <si>
-    <t>0.000286</t>
-  </si>
-  <si>
-    <t>0.000256</t>
-  </si>
-  <si>
-    <t>0.040242</t>
-  </si>
-  <si>
-    <t>0.003300</t>
-  </si>
-  <si>
-    <t>0.081890</t>
-  </si>
-  <si>
     <t>0.002924</t>
   </si>
   <si>
-    <t>0.010885</t>
-  </si>
-  <si>
-    <t>0.004786</t>
-  </si>
-  <si>
-    <t>0.003495</t>
-  </si>
-  <si>
-    <t>8.556292</t>
-  </si>
-  <si>
-    <t>0.181168</t>
-  </si>
-  <si>
-    <t>13.025811</t>
-  </si>
-  <si>
     <t>0.078378</t>
   </si>
   <si>
-    <t>0.113882</t>
-  </si>
-  <si>
-    <t>0.051806</t>
-  </si>
-  <si>
-    <t>0.048913</t>
+    <t>0.002390</t>
+  </si>
+  <si>
+    <t>0.239197</t>
+  </si>
+  <si>
+    <t>0.001760</t>
+  </si>
+  <si>
+    <t>0.148711</t>
+  </si>
+  <si>
+    <t>19.169552</t>
+  </si>
+  <si>
+    <t>0.000128</t>
+  </si>
+  <si>
+    <t>0.001698</t>
+  </si>
+  <si>
+    <t>0.005537</t>
+  </si>
+  <si>
+    <t>0.058302</t>
   </si>
   <si>
     <t>0.000025</t>
   </si>
   <si>
+    <t>0.001850</t>
+  </si>
+  <si>
+    <t>0.153152</t>
+  </si>
+  <si>
+    <t>0.084106</t>
+  </si>
+  <si>
+    <t>21.026633</t>
+  </si>
+  <si>
+    <t>0.000120</t>
+  </si>
+  <si>
+    <t>0.001358</t>
+  </si>
+  <si>
+    <t>0.000909</t>
+  </si>
+  <si>
+    <t>0.019726</t>
+  </si>
+  <si>
+    <t>0.149944</t>
+  </si>
+  <si>
+    <t>0.000015</t>
+  </si>
+  <si>
+    <t>0.000071</t>
+  </si>
+  <si>
+    <t>0.000920</t>
+  </si>
+  <si>
+    <t>0.000250</t>
+  </si>
+  <si>
+    <t>0.009687</t>
+  </si>
+  <si>
+    <t>0.069921</t>
+  </si>
+  <si>
     <t>0.000018</t>
   </si>
   <si>
-    <t>0.000015</t>
-  </si>
-  <si>
-    <t>0.001850</t>
-  </si>
-  <si>
     <t>0.001155</t>
   </si>
   <si>
-    <t>0.002390</t>
+    <t>0.108201</t>
+  </si>
+  <si>
+    <t>0.000101</t>
+  </si>
+  <si>
+    <t>0.002164</t>
+  </si>
+  <si>
+    <t>0.131244</t>
   </si>
   <si>
     <t>0.000048</t>
   </si>
   <si>
-    <t>0.000120</t>
-  </si>
-  <si>
-    <t>0.000128</t>
-  </si>
-  <si>
-    <t>0.000071</t>
-  </si>
-  <si>
-    <t>0.153152</t>
-  </si>
-  <si>
-    <t>0.108201</t>
-  </si>
-  <si>
-    <t>0.239197</t>
-  </si>
-  <si>
     <t>0.000611</t>
   </si>
   <si>
-    <t>0.001358</t>
-  </si>
-  <si>
-    <t>0.001698</t>
-  </si>
-  <si>
-    <t>0.000920</t>
-  </si>
-  <si>
-    <t>0.000101</t>
-  </si>
-  <si>
-    <t>0.001760</t>
-  </si>
-  <si>
     <t>0.000232</t>
   </si>
   <si>
-    <t>0.000909</t>
-  </si>
-  <si>
-    <t>0.000250</t>
-  </si>
-  <si>
-    <t>0.084106</t>
-  </si>
-  <si>
-    <t>0.002164</t>
-  </si>
-  <si>
-    <t>0.148711</t>
-  </si>
-  <si>
     <t>0.003951</t>
   </si>
   <si>
-    <t>0.019726</t>
-  </si>
-  <si>
-    <t>0.005537</t>
-  </si>
-  <si>
-    <t>0.009687</t>
-  </si>
-  <si>
-    <t>21.026633</t>
-  </si>
-  <si>
-    <t>0.131244</t>
-  </si>
-  <si>
-    <t>19.169552</t>
-  </si>
-  <si>
     <t>0.112158</t>
-  </si>
-  <si>
-    <t>0.149944</t>
-  </si>
-  <si>
-    <t>0.058302</t>
-  </si>
-  <si>
-    <t>0.069921</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -455,10 +469,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -784,17 +794,17 @@
       <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="13.15"/>
   <cols>
-    <col min="1" max="1" width="11.88671875" customWidth="1"/>
-    <col min="2" max="2" width="16.33203125" customWidth="1"/>
-    <col min="3" max="3" width="13.88671875" customWidth="1"/>
-    <col min="4" max="4" width="8.88671875" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" customWidth="1"/>
+    <col min="1" max="1" width="11.85546875" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -814,9 +824,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -825,7 +835,7 @@
         <v>100</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E2">
         <v>99</v>
@@ -834,9 +844,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -845,7 +855,7 @@
         <v>1000</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="E3">
         <v>999</v>
@@ -854,9 +864,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -865,7 +875,7 @@
         <v>10000</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="E4">
         <v>9999</v>
@@ -874,9 +884,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>1000</v>
@@ -885,7 +895,7 @@
         <v>100</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E5">
         <v>99</v>
@@ -894,18 +904,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>1000</v>
+      </c>
+      <c r="C6">
+        <v>1000</v>
+      </c>
+      <c r="D6" t="s">
         <v>10</v>
-      </c>
-      <c r="B6">
-        <v>1000</v>
-      </c>
-      <c r="C6">
-        <v>1000</v>
-      </c>
-      <c r="D6" t="s">
-        <v>41</v>
       </c>
       <c r="E6">
         <v>999</v>
@@ -914,9 +924,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B7">
         <v>1000</v>
@@ -925,7 +935,7 @@
         <v>10000</v>
       </c>
       <c r="D7" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="E7">
         <v>9999</v>
@@ -934,9 +944,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -945,7 +955,7 @@
         <v>100</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E8">
         <v>1081</v>
@@ -954,9 +964,9 @@
         <v>1923</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -965,7 +975,7 @@
         <v>1000</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="E9">
         <v>17583</v>
@@ -974,9 +984,9 @@
         <v>29127</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -985,7 +995,7 @@
         <v>10000</v>
       </c>
       <c r="D10" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="E10">
         <v>244460</v>
@@ -994,18 +1004,18 @@
         <v>395871</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11">
+        <v>1000</v>
+      </c>
+      <c r="C11">
+        <v>100</v>
+      </c>
+      <c r="D11" t="s">
         <v>16</v>
-      </c>
-      <c r="B11">
-        <v>1000</v>
-      </c>
-      <c r="C11">
-        <v>100</v>
-      </c>
-      <c r="D11" t="s">
-        <v>37</v>
       </c>
       <c r="E11">
         <v>1081</v>
@@ -1014,9 +1024,9 @@
         <v>1923</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B12">
         <v>1000</v>
@@ -1025,7 +1035,7 @@
         <v>1000</v>
       </c>
       <c r="D12" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="E12">
         <v>17583</v>
@@ -1034,9 +1044,9 @@
         <v>29127</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B13">
         <v>1000</v>
@@ -1045,7 +1055,7 @@
         <v>10000</v>
       </c>
       <c r="D13" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="E13">
         <v>244460</v>
@@ -1054,9 +1064,9 @@
         <v>395871</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -1065,7 +1075,7 @@
         <v>100</v>
       </c>
       <c r="D14" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="E14">
         <v>99</v>
@@ -1074,9 +1084,9 @@
         <v>99</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -1085,7 +1095,7 @@
         <v>1000</v>
       </c>
       <c r="D15" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E15">
         <v>999</v>
@@ -1094,9 +1104,9 @@
         <v>999</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -1105,7 +1115,7 @@
         <v>10000</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E16">
         <v>9999</v>
@@ -1114,9 +1124,9 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B17">
         <v>1000</v>
@@ -1125,7 +1135,7 @@
         <v>100</v>
       </c>
       <c r="D17" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="E17">
         <v>99</v>
@@ -1134,9 +1144,9 @@
         <v>99</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>1000</v>
@@ -1145,7 +1155,7 @@
         <v>1000</v>
       </c>
       <c r="D18" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="E18">
         <v>999</v>
@@ -1154,9 +1164,9 @@
         <v>999</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B19">
         <v>1000</v>
@@ -1165,7 +1175,7 @@
         <v>10000</v>
       </c>
       <c r="D19" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="E19">
         <v>9999</v>
@@ -1174,9 +1184,9 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -1185,7 +1195,7 @@
         <v>100</v>
       </c>
       <c r="D20" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="E20">
         <v>672</v>
@@ -1194,9 +1204,9 @@
         <v>1344</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -1205,7 +1215,7 @@
         <v>1000</v>
       </c>
       <c r="D21" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E21">
         <v>9976</v>
@@ -1214,9 +1224,9 @@
         <v>19952</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -1225,7 +1235,7 @@
         <v>10000</v>
       </c>
       <c r="D22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E22">
         <v>133616</v>
@@ -1234,9 +1244,9 @@
         <v>267232</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="B23">
         <v>1000</v>
@@ -1245,7 +1255,7 @@
         <v>100</v>
       </c>
       <c r="D23" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E23">
         <v>672</v>
@@ -1254,9 +1264,9 @@
         <v>1344</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="B24">
         <v>1000</v>
@@ -1265,7 +1275,7 @@
         <v>1000</v>
       </c>
       <c r="D24" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="E24">
         <v>9976</v>
@@ -1274,9 +1284,9 @@
         <v>19952</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="B25">
         <v>1000</v>
@@ -1285,7 +1295,7 @@
         <v>10000</v>
       </c>
       <c r="D25" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="E25">
         <v>133616</v>
@@ -1294,9 +1304,9 @@
         <v>267232</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -1305,7 +1315,7 @@
         <v>100</v>
       </c>
       <c r="D26" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E26">
         <v>593</v>
@@ -1314,9 +1324,9 @@
         <v>1398</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -1325,7 +1335,7 @@
         <v>1000</v>
       </c>
       <c r="D27" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="E27">
         <v>10182</v>
@@ -1334,9 +1344,9 @@
         <v>19653</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -1345,7 +1355,7 @@
         <v>10000</v>
       </c>
       <c r="D28" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E28">
         <v>156759</v>
@@ -1354,9 +1364,9 @@
         <v>303765</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="B29">
         <v>1000</v>
@@ -1365,7 +1375,7 @@
         <v>100</v>
       </c>
       <c r="D29" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E29">
         <v>633</v>
@@ -1374,9 +1384,9 @@
         <v>1476</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="B30">
         <v>1000</v>
@@ -1385,7 +1395,7 @@
         <v>1000</v>
       </c>
       <c r="D30" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="E30">
         <v>10945</v>
@@ -1394,9 +1404,9 @@
         <v>18939</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="B31">
         <v>1000</v>
@@ -1405,7 +1415,7 @@
         <v>10000</v>
       </c>
       <c r="D31" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="E31">
         <v>162912</v>
@@ -1414,9 +1424,9 @@
         <v>294969</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6">
       <c r="A32" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -1425,7 +1435,7 @@
         <v>100</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="E32">
         <v>4950</v>
@@ -1434,9 +1444,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6">
       <c r="A33" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -1445,7 +1455,7 @@
         <v>1000</v>
       </c>
       <c r="D33" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="E33">
         <v>499500</v>
@@ -1454,9 +1464,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6">
       <c r="A34" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -1465,7 +1475,7 @@
         <v>10000</v>
       </c>
       <c r="D34" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="E34">
         <v>49995000</v>
@@ -1474,9 +1484,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6">
       <c r="A35" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>1000</v>
@@ -1485,7 +1495,7 @@
         <v>100</v>
       </c>
       <c r="D35" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="E35">
         <v>4950</v>
@@ -1494,9 +1504,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6">
       <c r="A36" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="B36">
         <v>1000</v>
@@ -1505,7 +1515,7 @@
         <v>1000</v>
       </c>
       <c r="D36" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E36">
         <v>499500</v>
@@ -1514,9 +1524,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6">
       <c r="A37" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="B37">
         <v>1000</v>
@@ -1525,7 +1535,7 @@
         <v>10000</v>
       </c>
       <c r="D37" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E37">
         <v>49995000</v>
@@ -1534,9 +1544,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6">
       <c r="A38" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="B38">
         <v>1</v>
@@ -1545,7 +1555,7 @@
         <v>100</v>
       </c>
       <c r="D38" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="E38">
         <v>684</v>
@@ -1554,9 +1564,9 @@
         <v>342</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6">
       <c r="A39" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -1565,7 +1575,7 @@
         <v>1000</v>
       </c>
       <c r="D39" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="E39">
         <v>10914</v>
@@ -1574,9 +1584,9 @@
         <v>5457</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6">
       <c r="A40" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="B40">
         <v>1</v>
@@ -1585,7 +1595,7 @@
         <v>10000</v>
       </c>
       <c r="D40" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="E40">
         <v>150486</v>
@@ -1594,9 +1604,9 @@
         <v>75243</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6">
       <c r="A41" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="B41">
         <v>1000</v>
@@ -1605,7 +1615,7 @@
         <v>100</v>
       </c>
       <c r="D41" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="E41">
         <v>684</v>
@@ -1614,9 +1624,9 @@
         <v>342</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6">
       <c r="A42" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="B42">
         <v>1000</v>
@@ -1625,7 +1635,7 @@
         <v>1000</v>
       </c>
       <c r="D42" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="E42">
         <v>10914</v>
@@ -1634,9 +1644,9 @@
         <v>5457</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6">
       <c r="A43" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="B43">
         <v>1000</v>
@@ -1645,7 +1655,7 @@
         <v>10000</v>
       </c>
       <c r="D43" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E43">
         <v>150486</v>
@@ -1675,9 +1685,9 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="13.15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1697,9 +1707,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -1708,7 +1718,7 @@
         <v>100</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="E2">
         <v>4845</v>
@@ -1717,9 +1727,9 @@
         <v>6525</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -1728,7 +1738,7 @@
         <v>1000</v>
       </c>
       <c r="D3" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="E3">
         <v>497547</v>
@@ -1737,9 +1747,9 @@
         <v>744900</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -1748,7 +1758,7 @@
         <v>10000</v>
       </c>
       <c r="D4" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="E4">
         <v>49984269</v>
@@ -1757,9 +1767,9 @@
         <v>75012816</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>1000</v>
@@ -1768,7 +1778,7 @@
         <v>100</v>
       </c>
       <c r="D5" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="E5">
         <v>4845</v>
@@ -1777,9 +1787,9 @@
         <v>6525</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B6">
         <v>1000</v>
@@ -1788,7 +1798,7 @@
         <v>1000</v>
       </c>
       <c r="D6" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="E6">
         <v>497547</v>
@@ -1797,9 +1807,9 @@
         <v>744900</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B7">
         <v>1000</v>
@@ -1808,7 +1818,7 @@
         <v>10000</v>
       </c>
       <c r="D7" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="E7">
         <v>49984269</v>
@@ -1817,9 +1827,9 @@
         <v>75012816</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -1828,7 +1838,7 @@
         <v>100</v>
       </c>
       <c r="D8" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E8">
         <v>1041</v>
@@ -1837,9 +1847,9 @@
         <v>1788</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -1848,7 +1858,7 @@
         <v>1000</v>
       </c>
       <c r="D9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E9">
         <v>16806</v>
@@ -1857,9 +1867,9 @@
         <v>27219</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -1868,7 +1878,7 @@
         <v>10000</v>
       </c>
       <c r="D10" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="E10">
         <v>235447</v>
@@ -1877,9 +1887,9 @@
         <v>372555</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B11">
         <v>1000</v>
@@ -1888,7 +1898,7 @@
         <v>100</v>
       </c>
       <c r="D11" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="E11">
         <v>1041</v>
@@ -1897,9 +1907,9 @@
         <v>1788</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B12">
         <v>1000</v>
@@ -1908,7 +1918,7 @@
         <v>1000</v>
       </c>
       <c r="D12" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="E12">
         <v>16806</v>
@@ -1917,9 +1927,9 @@
         <v>27219</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B13">
         <v>1000</v>
@@ -1928,7 +1938,7 @@
         <v>10000</v>
       </c>
       <c r="D13" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="E13">
         <v>235447</v>
@@ -1937,9 +1947,9 @@
         <v>372555</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -1948,7 +1958,7 @@
         <v>100</v>
       </c>
       <c r="D14" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="E14">
         <v>2274</v>
@@ -1957,9 +1967,9 @@
         <v>2274</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -1968,7 +1978,7 @@
         <v>1000</v>
       </c>
       <c r="D15" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="E15">
         <v>249299</v>
@@ -1977,9 +1987,9 @@
         <v>249299</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -1988,7 +1998,7 @@
         <v>10000</v>
       </c>
       <c r="D16" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="E16">
         <v>25014271</v>
@@ -1997,9 +2007,9 @@
         <v>25014271</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B17">
         <v>1000</v>
@@ -2008,7 +2018,7 @@
         <v>100</v>
       </c>
       <c r="D17" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E17">
         <v>2274</v>
@@ -2017,9 +2027,9 @@
         <v>2274</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>1000</v>
@@ -2028,7 +2038,7 @@
         <v>1000</v>
       </c>
       <c r="D18" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="E18">
         <v>249299</v>
@@ -2037,9 +2047,9 @@
         <v>249299</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B19">
         <v>1000</v>
@@ -2048,7 +2058,7 @@
         <v>10000</v>
       </c>
       <c r="D19" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="E19">
         <v>25014271</v>
@@ -2057,9 +2067,9 @@
         <v>25014271</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -2068,7 +2078,7 @@
         <v>100</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="E20">
         <v>672</v>
@@ -2077,18 +2087,18 @@
         <v>1344</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6">
       <c r="A21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>1000</v>
+      </c>
+      <c r="D21" t="s">
         <v>14</v>
-      </c>
-      <c r="B21">
-        <v>1</v>
-      </c>
-      <c r="C21">
-        <v>1000</v>
-      </c>
-      <c r="D21" t="s">
-        <v>24</v>
       </c>
       <c r="E21">
         <v>9976</v>
@@ -2097,9 +2107,9 @@
         <v>19952</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -2108,7 +2118,7 @@
         <v>10000</v>
       </c>
       <c r="D22" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E22">
         <v>133616</v>
@@ -2117,9 +2127,9 @@
         <v>267232</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="B23">
         <v>1000</v>
@@ -2128,7 +2138,7 @@
         <v>100</v>
       </c>
       <c r="D23" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E23">
         <v>672</v>
@@ -2137,9 +2147,9 @@
         <v>1344</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="B24">
         <v>1000</v>
@@ -2148,7 +2158,7 @@
         <v>1000</v>
       </c>
       <c r="D24" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="E24">
         <v>9976</v>
@@ -2157,9 +2167,9 @@
         <v>19952</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="B25">
         <v>1000</v>
@@ -2168,7 +2178,7 @@
         <v>10000</v>
       </c>
       <c r="D25" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="E25">
         <v>133616</v>
@@ -2177,9 +2187,9 @@
         <v>267232</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -2188,7 +2198,7 @@
         <v>100</v>
       </c>
       <c r="D26" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="E26">
         <v>649</v>
@@ -2197,9 +2207,9 @@
         <v>1530</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -2208,7 +2218,7 @@
         <v>1000</v>
       </c>
       <c r="D27" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="E27">
         <v>11311</v>
@@ -2217,9 +2227,9 @@
         <v>22986</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -2228,7 +2238,7 @@
         <v>10000</v>
       </c>
       <c r="D28" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="E28">
         <v>156649</v>
@@ -2237,9 +2247,9 @@
         <v>259809</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="B29">
         <v>1000</v>
@@ -2248,7 +2258,7 @@
         <v>100</v>
       </c>
       <c r="D29" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E29">
         <v>618</v>
@@ -2257,9 +2267,9 @@
         <v>1434</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="B30">
         <v>1000</v>
@@ -2268,7 +2278,7 @@
         <v>1000</v>
       </c>
       <c r="D30" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E30">
         <v>10011</v>
@@ -2277,9 +2287,9 @@
         <v>19272</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="B31">
         <v>1000</v>
@@ -2288,7 +2298,7 @@
         <v>10000</v>
       </c>
       <c r="D31" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="E31">
         <v>158254</v>
@@ -2297,9 +2307,9 @@
         <v>277086</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6">
       <c r="A32" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -2308,7 +2318,7 @@
         <v>100</v>
       </c>
       <c r="D32" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="E32">
         <v>4950</v>
@@ -2317,9 +2327,9 @@
         <v>291</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6">
       <c r="A33" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -2328,7 +2338,7 @@
         <v>1000</v>
       </c>
       <c r="D33" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="E33">
         <v>499500</v>
@@ -2337,9 +2347,9 @@
         <v>2970</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6">
       <c r="A34" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -2348,7 +2358,7 @@
         <v>10000</v>
       </c>
       <c r="D34" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="E34">
         <v>49995000</v>
@@ -2357,9 +2367,9 @@
         <v>29964</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6">
       <c r="A35" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>1000</v>
@@ -2368,7 +2378,7 @@
         <v>100</v>
       </c>
       <c r="D35" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="E35">
         <v>4950</v>
@@ -2377,9 +2387,9 @@
         <v>291</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6">
       <c r="A36" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="B36">
         <v>1000</v>
@@ -2388,7 +2398,7 @@
         <v>1000</v>
       </c>
       <c r="D36" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="E36">
         <v>499500</v>
@@ -2397,9 +2407,9 @@
         <v>2970</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6">
       <c r="A37" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="B37">
         <v>1000</v>
@@ -2417,9 +2427,9 @@
         <v>29964</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6">
       <c r="A38" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="B38">
         <v>1</v>
@@ -2428,7 +2438,7 @@
         <v>100</v>
       </c>
       <c r="D38" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="E38">
         <v>1077</v>
@@ -2437,9 +2447,9 @@
         <v>765</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6">
       <c r="A39" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -2448,7 +2458,7 @@
         <v>1000</v>
       </c>
       <c r="D39" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="E39">
         <v>19516</v>
@@ -2457,9 +2467,9 @@
         <v>14495</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6">
       <c r="A40" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="B40">
         <v>1</v>
@@ -2468,7 +2478,7 @@
         <v>10000</v>
       </c>
       <c r="D40" t="s">
-        <v>65</v>
+        <v>86</v>
       </c>
       <c r="E40">
         <v>303572</v>
@@ -2477,9 +2487,9 @@
         <v>232615</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6">
       <c r="A41" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="B41">
         <v>1000</v>
@@ -2488,7 +2498,7 @@
         <v>100</v>
       </c>
       <c r="D41" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="E41">
         <v>1077</v>
@@ -2497,9 +2507,9 @@
         <v>765</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6">
       <c r="A42" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="B42">
         <v>1000</v>
@@ -2508,7 +2518,7 @@
         <v>1000</v>
       </c>
       <c r="D42" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="E42">
         <v>19516</v>
@@ -2517,9 +2527,9 @@
         <v>14495</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6">
       <c r="A43" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="B43">
         <v>1000</v>
@@ -2528,7 +2538,7 @@
         <v>10000</v>
       </c>
       <c r="D43" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E43">
         <v>303572</v>
@@ -2558,9 +2568,9 @@
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="13.15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2580,9 +2590,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -2591,7 +2601,7 @@
         <v>100</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="E2">
         <v>4950</v>
@@ -2600,9 +2610,9 @@
         <v>14850</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -2611,7 +2621,7 @@
         <v>1000</v>
       </c>
       <c r="D3" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="E3">
         <v>499500</v>
@@ -2620,9 +2630,9 @@
         <v>1498500</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -2631,7 +2641,7 @@
         <v>10000</v>
       </c>
       <c r="D4" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="E4">
         <v>49995000</v>
@@ -2640,9 +2650,9 @@
         <v>149985000</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>1000</v>
@@ -2651,7 +2661,7 @@
         <v>100</v>
       </c>
       <c r="D5" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="E5">
         <v>4950</v>
@@ -2660,9 +2670,9 @@
         <v>14850</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B6">
         <v>1000</v>
@@ -2671,7 +2681,7 @@
         <v>1000</v>
       </c>
       <c r="D6" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="E6">
         <v>499500</v>
@@ -2680,9 +2690,9 @@
         <v>1498500</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B7">
         <v>1000</v>
@@ -2691,7 +2701,7 @@
         <v>10000</v>
       </c>
       <c r="D7" t="s">
-        <v>121</v>
+        <v>94</v>
       </c>
       <c r="E7">
         <v>49995000</v>
@@ -2700,9 +2710,9 @@
         <v>149985000</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -2711,7 +2721,7 @@
         <v>100</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E8">
         <v>944</v>
@@ -2720,9 +2730,9 @@
         <v>1551</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -2731,7 +2741,7 @@
         <v>1000</v>
       </c>
       <c r="D9" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E9">
         <v>15965</v>
@@ -2740,9 +2750,9 @@
         <v>24951</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -2751,7 +2761,7 @@
         <v>10000</v>
       </c>
       <c r="D10" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="E10">
         <v>226682</v>
@@ -2760,18 +2770,18 @@
         <v>350091</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11">
+        <v>1000</v>
+      </c>
+      <c r="C11">
+        <v>100</v>
+      </c>
+      <c r="D11" t="s">
         <v>16</v>
-      </c>
-      <c r="B11">
-        <v>1000</v>
-      </c>
-      <c r="C11">
-        <v>100</v>
-      </c>
-      <c r="D11" t="s">
-        <v>37</v>
       </c>
       <c r="E11">
         <v>944</v>
@@ -2780,9 +2790,9 @@
         <v>1551</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B12">
         <v>1000</v>
@@ -2791,7 +2801,7 @@
         <v>1000</v>
       </c>
       <c r="D12" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="E12">
         <v>15965</v>
@@ -2800,9 +2810,9 @@
         <v>24951</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B13">
         <v>1000</v>
@@ -2811,7 +2821,7 @@
         <v>10000</v>
       </c>
       <c r="D13" t="s">
-        <v>124</v>
+        <v>98</v>
       </c>
       <c r="E13">
         <v>226682</v>
@@ -2820,9 +2830,9 @@
         <v>350091</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -2831,7 +2841,7 @@
         <v>100</v>
       </c>
       <c r="D14" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="E14">
         <v>5049</v>
@@ -2840,9 +2850,9 @@
         <v>5049</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -2851,7 +2861,7 @@
         <v>1000</v>
       </c>
       <c r="D15" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="E15">
         <v>500499</v>
@@ -2860,9 +2870,9 @@
         <v>500499</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -2871,7 +2881,7 @@
         <v>10000</v>
       </c>
       <c r="D16" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E16">
         <v>50004999</v>
@@ -2880,9 +2890,9 @@
         <v>50004999</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B17">
         <v>1000</v>
@@ -2891,7 +2901,7 @@
         <v>100</v>
       </c>
       <c r="D17" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="E17">
         <v>5049</v>
@@ -2900,9 +2910,9 @@
         <v>5049</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>1000</v>
@@ -2911,7 +2921,7 @@
         <v>1000</v>
       </c>
       <c r="D18" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="E18">
         <v>500499</v>
@@ -2920,9 +2930,9 @@
         <v>500499</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B19">
         <v>1000</v>
@@ -2931,7 +2941,7 @@
         <v>10000</v>
       </c>
       <c r="D19" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="E19">
         <v>50004999</v>
@@ -2940,9 +2950,9 @@
         <v>50004999</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -2951,7 +2961,7 @@
         <v>100</v>
       </c>
       <c r="D20" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="E20">
         <v>672</v>
@@ -2960,9 +2970,9 @@
         <v>1344</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -2971,7 +2981,7 @@
         <v>1000</v>
       </c>
       <c r="D21" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="E21">
         <v>9976</v>
@@ -2980,9 +2990,9 @@
         <v>19952</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -2991,7 +3001,7 @@
         <v>10000</v>
       </c>
       <c r="D22" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E22">
         <v>133616</v>
@@ -3000,9 +3010,9 @@
         <v>267232</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="B23">
         <v>1000</v>
@@ -3011,7 +3021,7 @@
         <v>100</v>
       </c>
       <c r="D23" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E23">
         <v>672</v>
@@ -3020,9 +3030,9 @@
         <v>1344</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="B24">
         <v>1000</v>
@@ -3031,7 +3041,7 @@
         <v>1000</v>
       </c>
       <c r="D24" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="E24">
         <v>9976</v>
@@ -3040,9 +3050,9 @@
         <v>19952</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="B25">
         <v>1000</v>
@@ -3051,7 +3061,7 @@
         <v>10000</v>
       </c>
       <c r="D25" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="E25">
         <v>133616</v>
@@ -3060,9 +3070,9 @@
         <v>267232</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -3071,7 +3081,7 @@
         <v>100</v>
       </c>
       <c r="D26" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="E26">
         <v>622</v>
@@ -3080,9 +3090,9 @@
         <v>1224</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -3091,7 +3101,7 @@
         <v>1000</v>
       </c>
       <c r="D27" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="E27">
         <v>10008</v>
@@ -3100,9 +3110,9 @@
         <v>17436</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -3111,7 +3121,7 @@
         <v>10000</v>
       </c>
       <c r="D28" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="E28">
         <v>163578</v>
@@ -3120,9 +3130,9 @@
         <v>285930</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="B29">
         <v>1000</v>
@@ -3131,7 +3141,7 @@
         <v>100</v>
       </c>
       <c r="D29" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E29">
         <v>718</v>
@@ -3140,9 +3150,9 @@
         <v>1557</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="B30">
         <v>1000</v>
@@ -3151,7 +3161,7 @@
         <v>1000</v>
       </c>
       <c r="D30" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="E30">
         <v>11335</v>
@@ -3160,9 +3170,9 @@
         <v>21042</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="B31">
         <v>1000</v>
@@ -3171,7 +3181,7 @@
         <v>10000</v>
       </c>
       <c r="D31" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="E31">
         <v>156571</v>
@@ -3180,9 +3190,9 @@
         <v>276591</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6">
       <c r="A32" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -3191,7 +3201,7 @@
         <v>100</v>
       </c>
       <c r="D32" t="s">
-        <v>91</v>
+        <v>115</v>
       </c>
       <c r="E32">
         <v>4950</v>
@@ -3200,9 +3210,9 @@
         <v>150</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6">
       <c r="A33" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -3211,7 +3221,7 @@
         <v>1000</v>
       </c>
       <c r="D33" t="s">
-        <v>94</v>
+        <v>116</v>
       </c>
       <c r="E33">
         <v>499500</v>
@@ -3220,9 +3230,9 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6">
       <c r="A34" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -3231,7 +3241,7 @@
         <v>10000</v>
       </c>
       <c r="D34" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="E34">
         <v>49995000</v>
@@ -3240,9 +3250,9 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6">
       <c r="A35" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>1000</v>
@@ -3251,7 +3261,7 @@
         <v>100</v>
       </c>
       <c r="D35" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="E35">
         <v>4950</v>
@@ -3260,9 +3270,9 @@
         <v>150</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6">
       <c r="A36" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="B36">
         <v>1000</v>
@@ -3271,7 +3281,7 @@
         <v>1000</v>
       </c>
       <c r="D36" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="E36">
         <v>499500</v>
@@ -3280,9 +3290,9 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6">
       <c r="A37" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="B37">
         <v>1000</v>
@@ -3300,9 +3310,9 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6">
       <c r="A38" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="B38">
         <v>1</v>
@@ -3311,7 +3321,7 @@
         <v>100</v>
       </c>
       <c r="D38" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E38">
         <v>842</v>
@@ -3320,9 +3330,9 @@
         <v>572</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6">
       <c r="A39" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -3331,7 +3341,7 @@
         <v>1000</v>
       </c>
       <c r="D39" t="s">
-        <v>96</v>
+        <v>121</v>
       </c>
       <c r="E39">
         <v>14007</v>
@@ -3340,9 +3350,9 @@
         <v>9377</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6">
       <c r="A40" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="B40">
         <v>1</v>
@@ -3351,7 +3361,7 @@
         <v>10000</v>
       </c>
       <c r="D40" t="s">
-        <v>103</v>
+        <v>122</v>
       </c>
       <c r="E40">
         <v>195433</v>
@@ -3360,9 +3370,9 @@
         <v>128947</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6">
       <c r="A41" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="B41">
         <v>1000</v>
@@ -3371,7 +3381,7 @@
         <v>100</v>
       </c>
       <c r="D41" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="E41">
         <v>842</v>
@@ -3380,9 +3390,9 @@
         <v>572</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6">
       <c r="A42" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="B42">
         <v>1000</v>
@@ -3391,7 +3401,7 @@
         <v>1000</v>
       </c>
       <c r="D42" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="E42">
         <v>14007</v>
@@ -3400,9 +3410,9 @@
         <v>9377</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6">
       <c r="A43" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="B43">
         <v>1000</v>
@@ -3411,7 +3421,7 @@
         <v>10000</v>
       </c>
       <c r="D43" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E43">
         <v>195433</v>
